--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_23.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_23.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Selected Financial Information</t>
   </si>
@@ -1325,7 +1325,7 @@
         <v>-50601311.959999993</v>
       </c>
       <c r="E16" s="1">
-        <v>-60473972.810000002</v>
+        <v>60473972.810000002</v>
       </c>
       <c r="F16" s="1">
         <v>-53616441.74000001</v>
@@ -1399,7 +1399,8 @@
         <v>1447283759.3800049</v>
       </c>
       <c r="E18" s="1">
-        <v>1447134856</v>
+        <f>SUM(E12:E17)</f>
+        <v>1568082801.0799999</v>
       </c>
       <c r="F18" s="1">
         <f>SUM(F12:F17)</f>
@@ -1438,7 +1439,9 @@
       <c r="D19" s="1">
         <v>-383099999.99999988</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>384700000</v>
+      </c>
       <c r="F19" s="1">
         <v>-412700000</v>
       </c>
@@ -1510,7 +1513,10 @@
         <f>SUM(D18:D20)</f>
         <v>1096925174.6300049</v>
       </c>
-      <c r="E21" s="33"/>
+      <c r="E21" s="33">
+        <f>SUM(E18:E20)</f>
+        <v>1952782801.0799999</v>
+      </c>
       <c r="F21" s="33">
         <f>SUM(F18:F20)</f>
         <v>1038368426.2899954</v>
@@ -1548,7 +1554,9 @@
       <c r="D22" s="32">
         <v>-32201025</v>
       </c>
-      <c r="E22" s="32"/>
+      <c r="E22" s="32">
+        <v>20015625</v>
+      </c>
       <c r="F22" s="32">
         <v>-20015625</v>
       </c>
@@ -1586,7 +1594,7 @@
       </c>
       <c r="E23" s="33">
         <f>SUM(E21:E22)</f>
-        <v>0</v>
+        <v>1972798426.0799999</v>
       </c>
       <c r="F23" s="33">
         <f>SUM(F21:F22)</f>
@@ -1632,9 +1640,9 @@
         <f>D23/D26</f>
         <v>1.0541908745672561</v>
       </c>
-      <c r="E25" s="5" t="e">
+      <c r="E25" s="5">
         <f>E23/E26</f>
-        <v>#VALUE!</v>
+        <v>1.9367489356933691</v>
       </c>
       <c r="F25" s="5">
         <f>F23/F26</f>
@@ -1671,8 +1679,8 @@
       <c r="D26" s="1">
         <v>1009991810.1331247</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>13</v>
+      <c r="E26" s="1">
+        <v>1018613404</v>
       </c>
       <c r="F26" s="1">
         <v>1026703455.3810816</v>
@@ -1723,13 +1731,13 @@
         <f>(D25-C25)/C25</f>
         <v>-3.0230131741731451E-2</v>
       </c>
-      <c r="E28" s="16" t="e">
+      <c r="E28" s="16">
         <f>(E25-D25)/D25</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F28" s="16" t="e">
+        <v>0.83719000270079347</v>
+      </c>
+      <c r="F28" s="16">
         <f>(F25-E25)/E25</f>
-        <v>#VALUE!</v>
+        <v>-0.48787035883524416</v>
       </c>
       <c r="G28" s="16">
         <f>(G25-F25)/F25</f>
@@ -1755,9 +1763,9 @@
       <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="5" t="e">
+      <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>#VALUE!</v>
+        <v>1.2026573135396805</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
